--- a/TestData/custom_download_win.xlsx
+++ b/TestData/custom_download_win.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\STL_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A17DFD-EA86-4684-B9CB-0D0994C289BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F218C64A-8D8D-4031-A5DF-6785AAAD09FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4EA2DD7D-EBA6-49AA-9BF5-C3155CAE61AF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
   <si>
     <t>${DELETE CLIENT FOLDER}</t>
   </si>
@@ -435,7 +435,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,33 +502,112 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D17" si="0">IF(C3="False","7","")</f>
-        <v/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>180</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4">
+        <v>180</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D17" si="0">IF(C7="False","7","")</f>
         <v/>
       </c>
     </row>
